--- a/rpgm/rpgm/RPGM_Startup.xlsx
+++ b/rpgm/rpgm/RPGM_Startup.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="6285" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="6285" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Grade" sheetId="6" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="100">
   <si>
     <t>Addmission No.</t>
   </si>
@@ -301,6 +301,27 @@
   </si>
   <si>
     <t>Pushpa Verma</t>
+  </si>
+  <si>
+    <t>Aman</t>
+  </si>
+  <si>
+    <t>Aman Verma</t>
+  </si>
+  <si>
+    <t>MADHOGUNJ Hardoi</t>
+  </si>
+  <si>
+    <t>Anshi</t>
+  </si>
+  <si>
+    <t>Anshi Verma</t>
+  </si>
+  <si>
+    <t>25/12/2011</t>
+  </si>
+  <si>
+    <t>25/03/2005</t>
   </si>
 </sst>
 </file>
@@ -1517,8 +1538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1726,10 +1747,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1898,6 +1919,58 @@
       </c>
       <c r="H6" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>53</v>
+      </c>
+      <c r="B7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G7">
+        <v>11</v>
+      </c>
+      <c r="H7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>54</v>
+      </c>
+      <c r="B8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8">
+        <v>11</v>
+      </c>
+      <c r="H8" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
